--- a/QA/testcases/LLS/Patient/Patient_Login_Validation.xlsx
+++ b/QA/testcases/LLS/Patient/Patient_Login_Validation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="14685"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -19,14 +19,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>Step No</t>
   </si>
@@ -52,374 +52,383 @@
     <t>Reference Step</t>
   </si>
   <si>
+    <t>LLSPatientLogin</t>
+  </si>
+  <si>
+    <t>Login to the patient portal</t>
+  </si>
+  <si>
+    <t>Patient portal logged successfully with validation</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>ERROR_SELECT_FUND</t>
+  </si>
+  <si>
+    <t>ERROR_SEL_VALID_NO_OF_PPL</t>
+  </si>
+  <si>
+    <t>ERROR_HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>ERROR_VALID_ZIPCODE</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>ByID</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Breast Cancer Silo*</t>
+  </si>
+  <si>
+    <t>Select fund name from the drop down list</t>
+  </si>
+  <si>
+    <t>Fund name selected successfully</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Logout from the patient portal</t>
+  </si>
+  <si>
+    <t>Logged out successfully</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
+  </si>
+  <si>
+    <t>VerifyElementIsNotPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsEnable</t>
+  </si>
+  <si>
+    <t>WaitUntilVisibilityOfElement</t>
+  </si>
+  <si>
+    <t>WaitUntilInvisibilityOfElement</t>
+  </si>
+  <si>
+    <t>VerifyTextIsPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBeNotPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBePresent</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeClickable</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeSelected</t>
+  </si>
+  <si>
+    <t>TextToBePresentInElementValue</t>
+  </si>
+  <si>
+    <t>WaitForElementPresent</t>
+  </si>
+  <si>
+    <t>WaitForElementNotPresent</t>
+  </si>
+  <si>
+    <t>CheckTwoString</t>
+  </si>
+  <si>
+    <t>DeleteAllCookies</t>
+  </si>
+  <si>
+    <t>TakeScreeShot</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>NewTab</t>
+  </si>
+  <si>
+    <t>CloseTab</t>
+  </si>
+  <si>
+    <t>SendHttpPost</t>
+  </si>
+  <si>
+    <t>SplitAndOpenURL</t>
+  </si>
+  <si>
+    <t>WaitForAjaxQuery</t>
+  </si>
+  <si>
+    <t>TypeUsingReference</t>
+  </si>
+  <si>
+    <t>CurrentWindowName</t>
+  </si>
+  <si>
+    <t>GetSecondWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchParticularWindow</t>
+  </si>
+  <si>
+    <t>TypeDynamicValueReuse</t>
+  </si>
+  <si>
     <t>PatientLogin</t>
-  </si>
-  <si>
-    <t>Login to the patient portal</t>
-  </si>
-  <si>
-    <t>Patient portal logged successfully with validation</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>ERROR_SELECT_FUND</t>
-  </si>
-  <si>
-    <t>ERROR_SEL_VALID_NO_OF_PPL</t>
-  </si>
-  <si>
-    <t>ERROR_HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>ERROR_VALID_ZIPCODE</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>ByID</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Breast Cancer Silo*</t>
-  </si>
-  <si>
-    <t>Select fund name from the drop down list</t>
-  </si>
-  <si>
-    <t>Fund name selected successfully</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Logout from the patient portal</t>
-  </si>
-  <si>
-    <t>Logged out successfully</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
-  </si>
-  <si>
-    <t>VerifyElementIsNotPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsEnable</t>
-  </si>
-  <si>
-    <t>WaitUntilVisibilityOfElement</t>
-  </si>
-  <si>
-    <t>WaitUntilInvisibilityOfElement</t>
-  </si>
-  <si>
-    <t>VerifyTextIsPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBeNotPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBePresent</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeClickable</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeSelected</t>
-  </si>
-  <si>
-    <t>TextToBePresentInElementValue</t>
-  </si>
-  <si>
-    <t>WaitForElementPresent</t>
-  </si>
-  <si>
-    <t>WaitForElementNotPresent</t>
-  </si>
-  <si>
-    <t>CheckTwoString</t>
-  </si>
-  <si>
-    <t>DeleteAllCookies</t>
-  </si>
-  <si>
-    <t>TakeScreeShot</t>
-  </si>
-  <si>
-    <t>Highlight</t>
-  </si>
-  <si>
-    <t>NewTab</t>
-  </si>
-  <si>
-    <t>CloseTab</t>
-  </si>
-  <si>
-    <t>SendHttpPost</t>
-  </si>
-  <si>
-    <t>SplitAndOpenURL</t>
-  </si>
-  <si>
-    <t>WaitForAjaxQuery</t>
-  </si>
-  <si>
-    <t>TypeUsingReference</t>
-  </si>
-  <si>
-    <t>CurrentWindowName</t>
-  </si>
-  <si>
-    <t>GetSecondWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchParticularWindow</t>
-  </si>
-  <si>
-    <t>TypeDynamicValueReuse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,16 +456,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -466,22 +805,264 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -489,18 +1070,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,7 +1139,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -811,29 +1439,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.57142857142857" style="3" customWidth="1"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="72.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="84.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="9.42857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="72.7142857142857" style="3" customWidth="1"/>
+    <col min="7" max="7" width="84.7142857142857" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -890,7 +1518,7 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
@@ -912,13 +1540,13 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4">
@@ -930,13 +1558,13 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
@@ -948,13 +1576,13 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4">
@@ -966,15 +1594,15 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -984,20 +1612,20 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1007,7 +1635,7 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1017,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1029,54 +1657,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B8 B9 B10 B5:B7">
+      <formula1>DataList!$C$2:$C$196</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C8 C9 C10 C5:C7">
+      <formula1>DataList!$A$2:$A$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1 C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataList!$C$2:$C$196</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2 B3 B4 B8 B9 B10 B5:B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataList!$A$2:$A$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2 C3 C4 C8 C9 C10 C5:C7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1092,7 +1709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1100,7 +1717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1108,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1116,7 +1733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1124,7 +1741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1132,7 +1749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1151,7 +1768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1159,7 +1776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1167,57 +1784,57 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>59</v>
       </c>
@@ -1230,47 +1847,47 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>68</v>
       </c>
@@ -1435,32 +2052,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>105</v>
       </c>
@@ -1473,7 +2090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -1486,22 +2103,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -1522,7 +2139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>115</v>
       </c>
@@ -1594,32 +2211,24 @@
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89 C93 C2:C85 C86:C88 C90:C92 C95:C98 C100:C195">
+      <formula1>Sheet1!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C89 C93 C2:C85 C86:C88 C90:C92 C95:C98 C100:C195</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>